--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIPT\Summer_school\HashTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCAE7C1-0045-4A42-9C29-06A7C2CE2136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66882FAA-2FC5-455C-A7CD-70A7BFE80D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,15 +634,15 @@
         <v>523.38613999999995</v>
       </c>
       <c r="D18">
-        <f>D6/$C$1</f>
+        <f t="shared" ref="D18:F26" si="1">D6/$C$1</f>
         <v>190.94556</v>
       </c>
       <c r="E18">
-        <f>E6/$C$1</f>
+        <f t="shared" si="1"/>
         <v>96.857039999999998</v>
       </c>
       <c r="F18">
-        <f>F6/$C$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -655,15 +655,15 @@
         <v>531.47770000000003</v>
       </c>
       <c r="D19">
-        <f>D7/$C$1</f>
+        <f t="shared" si="1"/>
         <v>183.12508</v>
       </c>
       <c r="E19">
-        <f>E7/$C$1</f>
+        <f t="shared" si="1"/>
         <v>112.62764</v>
       </c>
       <c r="F19">
-        <f>F7/$C$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -676,15 +676,15 @@
         <v>533.66804000000002</v>
       </c>
       <c r="D20">
-        <f>D8/$C$1</f>
+        <f t="shared" si="1"/>
         <v>194.97183999999999</v>
       </c>
       <c r="E20">
-        <f>E8/$C$1</f>
+        <f t="shared" si="1"/>
         <v>107.66592</v>
       </c>
       <c r="F20">
-        <f>F8/$C$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -697,15 +697,15 @@
         <v>561.89</v>
       </c>
       <c r="D21">
-        <f>D9/$C$1</f>
+        <f t="shared" si="1"/>
         <v>189.34526</v>
       </c>
       <c r="E21">
-        <f>E9/$C$1</f>
+        <f t="shared" si="1"/>
         <v>106.34004</v>
       </c>
       <c r="F21">
-        <f>F9/$C$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -718,15 +718,15 @@
         <v>532.16782000000001</v>
       </c>
       <c r="D22">
-        <f>D10/$C$1</f>
+        <f t="shared" si="1"/>
         <v>192.02724000000001</v>
       </c>
       <c r="E22">
-        <f>E10/$C$1</f>
+        <f t="shared" si="1"/>
         <v>100.40461999999999</v>
       </c>
       <c r="F22">
-        <f>F10/$C$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -739,15 +739,15 @@
         <v>536.53926000000001</v>
       </c>
       <c r="D23">
-        <f>D11/$C$1</f>
+        <f t="shared" si="1"/>
         <v>189.97573</v>
       </c>
       <c r="E23">
-        <f>E11/$C$1</f>
+        <f t="shared" si="1"/>
         <v>108.23112</v>
       </c>
       <c r="F23">
-        <f>F11/$C$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -760,15 +760,15 @@
         <v>551.29862000000003</v>
       </c>
       <c r="D24">
-        <f>D12/$C$1</f>
+        <f t="shared" si="1"/>
         <v>177.15544</v>
       </c>
       <c r="E24">
-        <f>E12/$C$1</f>
+        <f t="shared" si="1"/>
         <v>121.32953999999999</v>
       </c>
       <c r="F24">
-        <f>F12/$C$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -781,15 +781,15 @@
         <v>532.84474</v>
       </c>
       <c r="D25">
-        <f>D13/$C$1</f>
+        <f t="shared" si="1"/>
         <v>183.23133999999999</v>
       </c>
       <c r="E25">
-        <f>E13/$C$1</f>
+        <f t="shared" si="1"/>
         <v>107.00539999999999</v>
       </c>
       <c r="F25">
-        <f>F13/$C$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -802,15 +802,15 @@
         <v>532.57776000000001</v>
       </c>
       <c r="D26">
-        <f>D14/$C$1</f>
+        <f t="shared" si="1"/>
         <v>214.45310000000001</v>
       </c>
       <c r="E26">
-        <f>E14/$C$1</f>
+        <f t="shared" si="1"/>
         <v>96.682500000000005</v>
       </c>
       <c r="F26">
-        <f>F14/$C$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -886,11 +886,11 @@
         <v>2.8178739604430634</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" ref="E32:F32" si="1">D28/E28</f>
+        <f t="shared" ref="E32:F32" si="2">D28/E28</f>
         <v>1.7980990861900057</v>
       </c>
       <c r="F32" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIPT\Summer_school\HashTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66882FAA-2FC5-455C-A7CD-70A7BFE80D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961E0F9B-70DC-4D07-8103-76A8C060A586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Mode:</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>crc32_intr</t>
+  </si>
+  <si>
+    <t>srctmp_intr</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,12 +432,12 @@
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C1">
         <v>100000</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -442,12 +445,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -457,8 +460,11 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -471,8 +477,11 @@
       <c r="E5">
         <v>9967106</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>9175162</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -485,8 +494,11 @@
       <c r="E6">
         <v>9685704</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>9743608</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -499,8 +511,11 @@
       <c r="E7">
         <v>11262764</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>11414230</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -513,8 +528,11 @@
       <c r="E8">
         <v>10766592</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>9555664</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -527,8 +545,11 @@
       <c r="E9">
         <v>10634004</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>9971848</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
@@ -541,8 +562,11 @@
       <c r="E10">
         <v>10040462</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>9686498</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -555,8 +579,11 @@
       <c r="E11">
         <v>10823112</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>9686316</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
@@ -569,8 +596,11 @@
       <c r="E12">
         <v>12132954</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>9882538</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>9</v>
       </c>
@@ -583,8 +613,11 @@
       <c r="E13">
         <v>10700540</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>10745998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>10</v>
       </c>
@@ -597,13 +630,16 @@
       <c r="E14">
         <v>9668250</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>11391994</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" cm="1">
         <f t="array" ref="B17:B26">B5:B14</f>
         <v>1</v>
@@ -622,199 +658,319 @@
       </c>
       <c r="F17">
         <f>F5/$C$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91.751620000000003</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:I17" si="0">G5/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:C26" si="0">C6/$C$1</f>
+        <f t="shared" ref="C18:C26" si="1">C6/$C$1</f>
         <v>523.38613999999995</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:F26" si="1">D6/$C$1</f>
+        <f t="shared" ref="D18:F26" si="2">D6/$C$1</f>
         <v>190.94556</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96.857039999999998</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>97.436080000000004</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:I18" si="3">G6/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>531.47770000000003</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>183.12508</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112.62764</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>114.14230000000001</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:I19" si="4">G7/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>533.66804000000002</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>194.97183999999999</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107.66592</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>95.556640000000002</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:I20" si="5">G8/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>561.89</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>189.34526</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>106.34004</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>99.71848</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:I21" si="6">G9/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>6</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>532.16782000000001</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>192.02724000000001</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100.40461999999999</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>96.864980000000003</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:I22" si="7">G10/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>7</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>536.53926000000001</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>189.97573</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108.23112</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>96.863159999999993</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:I23" si="8">G11/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>8</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>551.29862000000003</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>177.15544</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121.32953999999999</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>98.825379999999996</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:I24" si="9">G12/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>9</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>532.84474</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>183.23133999999999</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107.00539999999999</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>107.45998</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:I25" si="10">G13/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>532.57776000000001</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>214.45310000000001</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96.682500000000005</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>113.91994</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:I26" si="11">G14/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>6</v>
       </c>
@@ -832,10 +988,22 @@
       </c>
       <c r="F28">
         <f>AVERAGE(F17:F26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>101.253856</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:I28" si="12">AVERAGE(G17:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>7</v>
       </c>
@@ -853,10 +1021,22 @@
       </c>
       <c r="F29">
         <f>_xlfn.STDEV.S(F17:F26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.8115238200995218</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:I29" si="13">_xlfn.STDEV.S(G17:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>8</v>
       </c>
@@ -872,25 +1052,49 @@
         <f>E29/E28</f>
         <v>7.2514773344405217E-2</v>
       </c>
-      <c r="F30" s="1" t="e">
+      <c r="F30" s="1">
         <f>F29/F28</f>
+        <v>7.7147914446828794E-2</v>
+      </c>
+      <c r="G30" s="1" t="e">
+        <f t="shared" ref="G30:I30" si="14">G29/G28</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H30" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="1">
-        <f>C28/D28</f>
-        <v>2.8178739604430634</v>
+        <f>C28/D28-1</f>
+        <v>1.8178739604430634</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" ref="E32:F32" si="2">D28/E28</f>
-        <v>1.7980990861900057</v>
-      </c>
-      <c r="F32" t="e">
-        <f t="shared" si="2"/>
+        <f>D28/E28-1</f>
+        <v>0.79809908619000569</v>
+      </c>
+      <c r="F32" s="1">
+        <f>E28/F28-1</f>
+        <v>4.3728033429166313E-2</v>
+      </c>
+      <c r="G32" s="1" t="e">
+        <f t="shared" ref="G32:I32" si="15">F28/G28-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="1" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIPT\Summer_school\HashTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961E0F9B-70DC-4D07-8103-76A8C060A586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25908B1F-86D0-481B-A0E2-CFAE22FDC49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Mode:</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>srctmp_intr</t>
+  </si>
+  <si>
+    <t>srctmp_intr, 2^n</t>
+  </si>
+  <si>
+    <t>asm inline, 2^n</t>
   </si>
 </sst>
 </file>
@@ -424,20 +430,21 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C1">
         <v>100000</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -445,12 +452,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -463,8 +470,14 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -480,8 +493,14 @@
       <c r="F5">
         <v>9175162</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>9411896</v>
+      </c>
+      <c r="H5">
+        <v>9341790</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -497,8 +516,14 @@
       <c r="F6">
         <v>9743608</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>9670852</v>
+      </c>
+      <c r="H6">
+        <v>9956312</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -514,8 +539,14 @@
       <c r="F7">
         <v>11414230</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>10038708</v>
+      </c>
+      <c r="H7">
+        <v>9201754</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -531,8 +562,14 @@
       <c r="F8">
         <v>9555664</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>10247020</v>
+      </c>
+      <c r="H8">
+        <v>9051942</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -548,8 +585,14 @@
       <c r="F9">
         <v>9971848</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>9988286</v>
+      </c>
+      <c r="H9">
+        <v>9207552</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
@@ -565,8 +608,14 @@
       <c r="F10">
         <v>9686498</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>10493146</v>
+      </c>
+      <c r="H10">
+        <v>10567133</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -582,8 +631,14 @@
       <c r="F11">
         <v>9686316</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>9682390</v>
+      </c>
+      <c r="H11">
+        <v>10073549</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
@@ -599,8 +654,14 @@
       <c r="F12">
         <v>9882538</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>9670852</v>
+      </c>
+      <c r="H12">
+        <v>9157712</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>9</v>
       </c>
@@ -616,8 +677,14 @@
       <c r="F13">
         <v>10745998</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>10754396</v>
+      </c>
+      <c r="H13">
+        <v>9971925</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>10</v>
       </c>
@@ -633,8 +700,14 @@
       <c r="F14">
         <v>11391994</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>11066522</v>
+      </c>
+      <c r="H14">
+        <v>9244016</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -662,11 +735,11 @@
       </c>
       <c r="G17">
         <f t="shared" ref="G17:I17" si="0">G5/$C$1</f>
-        <v>0</v>
+        <v>94.118960000000001</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93.417900000000003</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
@@ -694,15 +767,15 @@
         <v>97.436080000000004</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:I18" si="3">G6/$C$1</f>
-        <v>0</v>
+        <f t="shared" ref="G18" si="3">G6/$C$1</f>
+        <v>96.708519999999993</v>
       </c>
       <c r="H18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>H6/$C$1</f>
+        <v>99.563119999999998</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
+        <f>I6/$C$1</f>
         <v>0</v>
       </c>
     </row>
@@ -728,11 +801,11 @@
       </c>
       <c r="G19">
         <f t="shared" ref="G19:I19" si="4">G7/$C$1</f>
-        <v>0</v>
+        <v>100.38708</v>
       </c>
       <c r="H19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>92.017539999999997</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
@@ -761,11 +834,11 @@
       </c>
       <c r="G20">
         <f t="shared" ref="G20:I20" si="5">G8/$C$1</f>
-        <v>0</v>
+        <v>102.47020000000001</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90.519419999999997</v>
       </c>
       <c r="I20">
         <f t="shared" si="5"/>
@@ -794,11 +867,11 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:I21" si="6">G9/$C$1</f>
-        <v>0</v>
+        <v>99.882859999999994</v>
       </c>
       <c r="H21">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>92.075519999999997</v>
       </c>
       <c r="I21">
         <f t="shared" si="6"/>
@@ -827,11 +900,11 @@
       </c>
       <c r="G22">
         <f t="shared" ref="G22:I22" si="7">G10/$C$1</f>
-        <v>0</v>
+        <v>104.93146</v>
       </c>
       <c r="H22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>105.67133</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
@@ -860,11 +933,11 @@
       </c>
       <c r="G23">
         <f t="shared" ref="G23:I23" si="8">G11/$C$1</f>
-        <v>0</v>
+        <v>96.823899999999995</v>
       </c>
       <c r="H23">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>100.73549</v>
       </c>
       <c r="I23">
         <f t="shared" si="8"/>
@@ -893,11 +966,11 @@
       </c>
       <c r="G24">
         <f t="shared" ref="G24:I24" si="9">G12/$C$1</f>
-        <v>0</v>
+        <v>96.708519999999993</v>
       </c>
       <c r="H24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>91.577119999999994</v>
       </c>
       <c r="I24">
         <f t="shared" si="9"/>
@@ -926,11 +999,11 @@
       </c>
       <c r="G25">
         <f t="shared" ref="G25:I25" si="10">G13/$C$1</f>
-        <v>0</v>
+        <v>107.54396</v>
       </c>
       <c r="H25">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>99.719250000000002</v>
       </c>
       <c r="I25">
         <f t="shared" si="10"/>
@@ -959,11 +1032,11 @@
       </c>
       <c r="G26">
         <f t="shared" ref="G26:I26" si="11">G14/$C$1</f>
-        <v>0</v>
+        <v>110.66522000000001</v>
       </c>
       <c r="H26">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>92.440160000000006</v>
       </c>
       <c r="I26">
         <f t="shared" si="11"/>
@@ -992,11 +1065,11 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:I28" si="12">AVERAGE(G17:G26)</f>
-        <v>0</v>
+        <v>101.02406799999999</v>
       </c>
       <c r="H28">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>95.773685</v>
       </c>
       <c r="I28">
         <f t="shared" si="12"/>
@@ -1025,11 +1098,11 @@
       </c>
       <c r="G29">
         <f t="shared" ref="G29:I29" si="13">_xlfn.STDEV.S(G17:G26)</f>
-        <v>0</v>
+        <v>5.3447560987253908</v>
       </c>
       <c r="H29">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5.1873329285229888</v>
       </c>
       <c r="I29">
         <f t="shared" si="13"/>
@@ -1056,13 +1129,13 @@
         <f>F29/F28</f>
         <v>7.7147914446828794E-2</v>
       </c>
-      <c r="G30" s="1" t="e">
+      <c r="G30" s="1">
         <f t="shared" ref="G30:I30" si="14">G29/G28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="1" t="e">
+        <v>5.2905769927275068E-2</v>
+      </c>
+      <c r="H30" s="1">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>5.4162403049678925E-2</v>
       </c>
       <c r="I30" s="1" t="e">
         <f t="shared" si="14"/>
@@ -1085,13 +1158,13 @@
         <f>E28/F28-1</f>
         <v>4.3728033429166313E-2</v>
       </c>
-      <c r="G32" s="1" t="e">
+      <c r="G32" s="1">
         <f t="shared" ref="G32:I32" si="15">F28/G28-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="1" t="e">
+        <v>2.2745866856204167E-3</v>
+      </c>
+      <c r="H32" s="1">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>5.4820726591025437E-2</v>
       </c>
       <c r="I32" s="1" t="e">
         <f t="shared" si="15"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIPT\Summer_school\HashTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25908B1F-86D0-481B-A0E2-CFAE22FDC49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDC4E98-8977-4792-BF04-46F4A9B8386D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,6 +1171,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <f>C28/H28</f>
+        <v>5.5909795785763077</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIPT\Summer_school\HashTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDC4E98-8977-4792-BF04-46F4A9B8386D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB20BFCF-8F60-4B98-864C-DC1C320CDD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Mode:</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>asm inline, 2^n</t>
+  </si>
+  <si>
+    <t>asm file+another</t>
   </si>
 </sst>
 </file>
@@ -429,22 +432,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C1">
         <v>100000</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -452,12 +456,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -476,8 +480,11 @@
       <c r="H4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -499,8 +506,11 @@
       <c r="H5">
         <v>9341790</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>9009000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -522,8 +532,11 @@
       <c r="H6">
         <v>9956312</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>9258156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -545,8 +558,11 @@
       <c r="H7">
         <v>9201754</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>8722312</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -568,8 +584,11 @@
       <c r="H8">
         <v>9051942</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>8856012</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -591,8 +610,11 @@
       <c r="H9">
         <v>9207552</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>8287134</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
@@ -614,8 +636,11 @@
       <c r="H10">
         <v>10567133</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>9691208</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -637,8 +662,11 @@
       <c r="H11">
         <v>10073549</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>8717530</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
@@ -660,8 +688,11 @@
       <c r="H12">
         <v>9157712</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>9083934</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>9</v>
       </c>
@@ -683,8 +714,11 @@
       <c r="H13">
         <v>9971925</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>9812584</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>10</v>
       </c>
@@ -706,8 +740,11 @@
       <c r="H14">
         <v>9244016</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>8547652</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -743,7 +780,7 @@
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90.09</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -776,7 +813,7 @@
       </c>
       <c r="I18">
         <f>I6/$C$1</f>
-        <v>0</v>
+        <v>92.581559999999996</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -809,7 +846,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>87.223119999999994</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -842,7 +879,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.560119999999998</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -875,7 +912,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>82.871340000000004</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -908,7 +945,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>96.912080000000003</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -941,7 +978,7 @@
       </c>
       <c r="I23">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>87.175299999999993</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -974,7 +1011,7 @@
       </c>
       <c r="I24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>90.839340000000007</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1007,7 +1044,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.125839999999997</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1040,7 +1077,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>85.476519999999994</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1073,7 +1110,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>89.985521999999989</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1106,7 +1143,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4.8330343001881921</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1137,9 +1174,9 @@
         <f t="shared" si="14"/>
         <v>5.4162403049678925E-2</v>
       </c>
-      <c r="I30" s="1" t="e">
+      <c r="I30" s="1">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>5.3709021104397132E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1166,9 +1203,9 @@
         <f t="shared" si="15"/>
         <v>5.4820726591025437E-2</v>
       </c>
-      <c r="I32" s="1" t="e">
+      <c r="I32" s="1">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>6.4323269692206919E-2</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.3">
